--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 98,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,06%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36,95%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,38; 55,3</t>
+          <t>34,16; 68,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,03; 47,87</t>
+          <t>27,71; 64,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 58,8</t>
+          <t>33,15; 71,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 38,88</t>
+          <t>32,05; 69,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 38,69</t>
+          <t>13,96; 41,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 32,92</t>
+          <t>15,69; 43,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,82; 42,89</t>
+          <t>11,14; 35,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,71; 39,32</t>
+          <t>13,69; 40,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,94; 43,03</t>
+          <t>26,46; 48,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,06; 48,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25,83; 49,19</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,41; 50,53</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>42,33%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,5; 66,45</t>
+          <t>24,42; 68,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,9; 66,11</t>
+          <t>30,04; 71,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,35; 61,85</t>
+          <t>22,51; 68,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,44; 53,08</t>
+          <t>18,03; 66,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,35; 56,65</t>
+          <t>25,28; 50,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,07; 56,02</t>
+          <t>26,27; 51,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,66; 57,23</t>
+          <t>20,12; 45,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,6; 56,76</t>
+          <t>27,29; 55,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,37; 55,26</t>
+          <t>30,55; 56,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32,78; 61,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27,73; 55,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 57,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>48,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51,82%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,84; 72,87</t>
+          <t>48,6; 74,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,24; 73,39</t>
+          <t>48,03; 74,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,1; 78,65</t>
+          <t>47,39; 72,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,38; 55,37</t>
+          <t>46,7; 72,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,44; 50,88</t>
+          <t>30,27; 50,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,04; 60,38</t>
+          <t>29,48; 48,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,94; 60,99</t>
+          <t>36,32; 56,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,39; 58,38</t>
+          <t>36,21; 57,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,28; 66,65</t>
+          <t>41,3; 57,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39,64; 54,71</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>43,54; 58,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42,99; 60,36</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>65,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>53,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>56,77%</t>
+          <t>53,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56,72%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54,55%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,94; 70,84</t>
+          <t>46,28; 68,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,35; 77,01</t>
+          <t>52,53; 73,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,21; 77,61</t>
+          <t>53,19; 74,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,48; 54,3</t>
+          <t>44,74; 66,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,16; 55,4</t>
+          <t>38,41; 59,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,57; 52,76</t>
+          <t>43,88; 63,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,52; 59,91</t>
+          <t>39,0; 59,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,56; 62,89</t>
+          <t>43,34; 62,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,09; 62,14</t>
+          <t>44,26; 59,49</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>51,44; 65,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49,49; 63,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46,69; 61,23</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>66,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>68,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>63,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>60,97%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>65,44%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>65,65%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,76; 78,38</t>
+          <t>51,79; 79,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,97; 73,67</t>
+          <t>48,51; 78,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,76; 74,62</t>
+          <t>53,6; 79,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,24; 67,78</t>
+          <t>54,31; 80,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,78; 65,51</t>
+          <t>40,82; 69,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,21; 67,4</t>
+          <t>38,45; 66,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,66; 70,86</t>
+          <t>46,25; 73,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,14; 67,4</t>
+          <t>46,2; 74,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,22; 68,42</t>
+          <t>52,16; 72,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49,51; 70,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56,17; 74,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>54,15; 73,86</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>86,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,01%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>80,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>79,28%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79,62%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74,3%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,48; 92,0</t>
+          <t>70,16; 94,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,99; 89,72</t>
+          <t>70,32; 94,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,9; 91,94</t>
+          <t>78,69; 97,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>54,71; 77,89</t>
+          <t>62,52; 90,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,81; 76,61</t>
+          <t>60,51; 87,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,25; 71,09</t>
+          <t>60,13; 86,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,56; 82,26</t>
+          <t>53,75; 83,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>66,06; 81,04</t>
+          <t>52,65; 83,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,94; 78,63</t>
+          <t>71,17; 88,49</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69,12; 87,47</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,22; 88,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62,83; 84,17</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>49,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>53,15%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53,81%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>53,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,4; 66,44</t>
+          <t>54,38; 66,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,01; 64,92</t>
+          <t>54,52; 67,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,87; 67,22</t>
+          <t>53,3; 67,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,91; 51,78</t>
+          <t>48,16; 65,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,74; 50,65</t>
+          <t>41,21; 50,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,51; 50,23</t>
+          <t>41,11; 51,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,0; 57,41</t>
+          <t>40,27; 50,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,53</t>
+          <t>44,66; 54,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,96; 57,41</t>
+          <t>49,01; 57,23</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 57,95</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>49,01; 58,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>48,37; 58,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 98,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54103</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48893</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64383</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67723</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32896</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32617</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26174</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36728</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>86999</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81511</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>90557</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>104450</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36562; 73047</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29297; 68354</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40628; 87646</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42737; 92465</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17841; 53557</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17918; 49639</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13652; 43490</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19443; 57587</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>62135; 114817</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57305; 107302</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>63302; 120553</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>72714; 139136</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>76951</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>73015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70811</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>93196</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61305</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49153</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39424</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65416</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>138256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>122168</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>110235</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>158611</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40255; 113721</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42159; 100796</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34727; 105770</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41048; 150686</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>40884; 81911</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32545; 64283</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24507; 55574</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43342; 88072</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99770; 185226</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86623; 163298</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76563; 152031</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>98532; 223361</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>98932</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79965</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>81505</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>107638</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>100918</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76987</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>91381</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>109993</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>199850</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>156952</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>172887</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>217632</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>77121; 118574</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62450; 96424</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63876; 98261</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>84171; 130048</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>76983; 127804</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>58857; 97816</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>71945; 111162</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86804; 138676</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>170573; 235475</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>130695; 180362</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>144943; 196289</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>180542; 253484</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107932</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>100812</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>99323</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111363</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>100596</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96495</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>80429</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>110746</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>208527</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>197307</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>179751</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>222109</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>86394; 127795</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83555; 116997</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>81005; 113419</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>89034; 133176</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>78772; 121378</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79043; 114316</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>64191; 97593</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>90225; 130889</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>173398; 233049</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>174489; 221299</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>156836; 201104</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>190105; 249293</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>107471</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86548</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>84624</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>107447</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>63512</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46360</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56640</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75034</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>170984</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>132907</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>141265</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>182481</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>80438; 123749</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>63099; 102031</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66033; 98077</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83995; 124867</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46554; 78897</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33794; 58555</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42858; 68456</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>56971; 91545</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>140504; 195554</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>107924; 153461</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>121261; 160444</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>150530; 205301</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>91994</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>70982</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>80936</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>109122</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>97517</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>74959</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>71136</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>112463</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>189511</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>145941</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>152072</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>221585</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>74860; 101344</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>58510; 78885</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>70928; 87834</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>86178; 125127</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>77500; 112257</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60656; 87410</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>54216; 83884</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>84441; 133342</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>167086; 207768</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>127234; 161006</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>132217; 168391</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>187376; 251004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>537384</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>460214</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>481583</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>596489</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>456744</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>376572</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>365184</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>510379</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>994128</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>836786</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>846767</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1106868</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>478162; 587306</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>408061; 507693</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>414285; 528097</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>497349; 672419</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>408472; 504911</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>331584; 414059</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>322382; 404059</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>461092; 561232</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>916579; 1070415</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>775386; 901186</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>773245; 918775</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>998837; 1204691</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>